--- a/results/rtx 3090 auction.xlsx
+++ b/results/rtx 3090 auction.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b%3Ag%3AG8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJY2j0nVsgmjHHPTfewFmcLPKQPVGDmH2y4SYQQL3N8Flwpmg94maU1TzKLN%2BR7OTMuDCyFIJsro0%2FqRiY1oNeCS4aDeh9HKP0F%2BNPJtGtL1JFiRXLEYnGvSiUrpM9dyHcSpT%2BHvOn3UyQDRzJmjl76wcwqfM57DvqOpLxT2Nf2F8%3D%7Ctkp%3ABk9SR_ao6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/255878375707?hash=item3b938a291b%3Ag%3AG8QAAOSwkZ5jlwYY&amp;amdata=enc%3AAQAHAAAAoDfBDJimf%2BeveZg3m9jgxijo3i4B%2FJjEX3SOU2NL%2F%2FlJIWLWyaQtjHEJkCvjiER5ctMu0huNuUOUaSQdSRK4aNy671p0sZg74L50uNZHQUQz2Ubz71AUcB2vqIW4cqBeUHhpNy6DzVfaKsu6WGxg%2BS0Sh%2FLyms2jm8cnKi3%2F2N5lQZNzWG5lgC8O79UnOFBUJCGQhDmyGGhuWnUtmW9qLRo%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901%3Ag%3A-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFIdKLJaATdQjaAd8Mz9Rsr7fF5BiLRT2aFfbHBfJ29vg5A8yPotLRFqQqDi9kvi%2BIouF03rz0pM07mw3UCUrtUexaY57oa0VzJn%2FsZ6ehLSrpUd%2BVySckTyGWzYfI6pLINRSO7VpmgdKsnb%2BSXkD7v3yhwOQ%2BL3nwOFantiuQ1ls%3D%7Ctkp%3ABk9SR_ao6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/374399981825?epid=9041937065&amp;hash=item572bfa5901%3Ag%3A-IYAAOSwimBjjI3i&amp;amdata=enc%3AAQAHAAAAoKQVqSXcE8D5mnIvvQCdEwdnHqp%2B2mDQENRACv7VBsnFBRzq%2BbLYP9%2B8Ky5s42ue%2FQnDsyg5W6EYw1drCIwgwymOoyQkTiQpnJB4Bbnb2BkqWy%2FGOt9o29a256%2BYvSfE2op5XfGn13JEoDZ1g222Ig1ym0cToxVk4bhNxb6sHw2uiCgs4nha0a7Yc2MZi%2BK8egbEXoUTr%2BH9KCjzv3Oot6Q%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00%3Ag%3AZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlGxo4eTX1r%2FuLHXn%2BLU1LFa%2B6m5cGDmfG1MKg4Ex9oz1Orv1I0xtJKEN1bcBz8tlYhYzIzp3FoZfFPOuUSlpWnSVX73cgfEWTMtbZ0UjvGw2%2FQnfADwOcsC0UoJHMvD12mwK9Z23pJCFEZ1Is%2Bi6UzBbwxj%2BjRBAEHjR2Zu%2Ft5aA%3D%7Ctkp%3ABk9SR_So6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/175525673472?epid=5040752558&amp;hash=item28de253a00%3Ag%3AZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoA9QkO4WJNtExhqB7vMF%2B%2BvG1smNycEyDNrcPvbpZoWlp4AmPqNaQvuPFlUeVB2239QwFNWmGPSoc1Ue2Ozh%2BiftIxThHXqoeYC476BztM0idqLkiH8SLU7Rdl%2Ff0G5661mcHcQac1nwZbG%2FBlNEY4vtIcSjmOdVJD%2BfOTjyYup3RsnkTIcOJ3BqpeQ9LG4hdiEhlFoMvQVZ9ObPQp1rDO0%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22%3Ag%3AE9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2Bs9rWNePTGYhRMk3ijvOaeMFiunjUu18CgE6dPY7i8hfIdtZsqVzMw%2BBMXBuW6p%2FqFesl4WEFdfReLo6JAA4ijt3JoxXf%2FuuhleG90yXeWdFrYo6TwwvSuB2HHJui%2BwJVSzhc2a2cHtxT2kz0QHq2gcfaNTnd0yznG6NcFvSAjgrM%3D%7Ctkp%3ABk9SR_So6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/125658930722?hash=item1d41db1e22%3Ag%3AE9YAAOSwWcpjb0Fv&amp;amdata=enc%3AAQAHAAAAoOHdSi5%2FsmwNJmiMSmP%2B8ricncjbTUe1QuMgXk7hs%2F%2BssAk0GlRU%2FVr00GvjhPdytP3qJIy%2BW9ceIWJUbp3n4%2F7Demba5Em4VvloGzmUHKzfNZDzHRJ7sY0IjHkn8wqCHxbVZSKYQHijqlbksJ18qTIvOySEvj7FcSHC7YkwDbgJ67S9Jyu6Y%2FoQkiVvE4h1oDhUdAGaApms9YRghunCgqk%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea%3Ag%3AdKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLL7FQBkLN7A3CqvT30qBb5k2%2BwnlhbgGic%2BE%2BrSYyeMqnKpZ7rM1EZz13rhaY0NRL9qmtbL4cwx4qT1E4NgauszQw%2Fr7cCs0%2FHYIczigZ4FwJpTRw8iIZ6i5f7swpMsb%2BvEawTI9dG%2BFwC%2BvgMYS3nKgM8PyEOPN4ekiPV%2BeiBiw%3D%7Ctkp%3ABk9SR_ao6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/125660831466?epid=14041880609&amp;hash=item1d41f81eea%3Ag%3AdKgAAOSws3hjl1ow&amp;amdata=enc%3AAQAHAAAAoM4IOs7%2FrX590fAXU5mnLqH%2BT2RPkFbyQgjQxEGo9xtLHTcAaXXLl6ugGHFZjZAKt8ZOW8kq%2FX9F8wwOaFBguBNQo5IC6ah7mjFBp4rx7uUkXimwuaX0tQUe9KuzZr2irHnI3ve%2FaAo%2FpXUjHom8xt8mmY7xh3o2WNd%2BtXfsxKd8XUB0VIlSHVLh0fpmDHOYjqkC9PbVJ6SY1HhPAiaxV7A%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800%3Ag%3ACGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfpT2dOezljlB8bS4m5cx615M2mPiXSep4%2FyH2IY6WtbBByYerbG4mWHLYfXUw%2BVigx%2FegWJpRhMc%2Feh2EOuwXvT2Gy6nQDkRKwziSROQ5oILrBMz7oQYwe6vVZIM5AKuN3xLAISk40H21Rx8n5Pz892tBIkipXDL2jHmByRbG%2BuM%3D%7Ctkp%3ABk9SR_So6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/304735672320?epid=5040752768&amp;hash=item46f3a95800%3Ag%3ACGYAAOSw3aFjjRol&amp;amdata=enc%3AAQAHAAAAoG6Bq46gA8PEszKiT9tjUOBDP%2BqKxEJ2RDzBfJdGSatfmMUo3%2BKA9CZPZ7cMN7wi9bHqSSKKnvMm%2BsyAqmzDHZbjTMGkihCz2R5GLT7W23RZ3kxgSAdxrra%2BrQrpLpJtE26eHgpOSDTZ%2FeZ1k1rrIZIVyNqYF2GpCn6SMd7nPBA3Ib%2FjxYLhJi786piTL5xF3apAZxQdwZxVsG9%2FEodfbFk%3D%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869%3Ag%3AO0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAmvjIAqW54KtZpjC9p7KRFxQia3Bfx3wXddJzJVc%2F4L3vmMS6mRC2mU8Y80509gIiWGzYeIYRGvnexMOBxvwMfHGvb1zB2GC7z98sNFa%2B9jsPlM4me7PUYcMsYPjVDlzm6ws%2Bx8Ak0RjuvDaXBW6b9RkMQs7LpG93fzKKJo9D2KE%7Ctkp%3ABk9SR_So6fKiYQ&amp;LH_Auction=1</t>
+          <t>https://www.ebay.com/itm/255875668073?epid=13041296957&amp;hash=item3b9360d869%3Ag%3AO0cAAOSwR85jQooD&amp;amdata=enc%3AAQAHAAAA4CElQeogw5RXc6sM5vd6HBuAgquxzPDIl6eU22Bz31v7yrajqxN3WGnijWyaeKQRnNYPNMc%2BLZoOU5YVmBN40K3jJi%2F%2BVGDjsimBtnDHdZnS%2Fth%2F4k5d4wEzc1v2sitTAlzURTUvuZkTL3DjlZLatYOG2O6F40ACLr5FBpxsBgsJhxn0eWftWsWcGtscK08sCNWIVolIkoSQxcvKUR9YJkpoeXkM4kSeTSLBV6ZztOEydMSORKAwh5IPIHvho8R3CDOj36PakwUOcqdbwYJijZUgX62dwiW1Jb9wQPyyl4ei%7Ctkp%3ABk9SR-Tuy_WiYQ&amp;LH_Auction=1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
